--- a/FA200_Script_PerformWhatifAnalysis_21C.xlsx
+++ b/FA200_Script_PerformWhatifAnalysis_21C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA_Master\venv\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933895BF-09F9-453C-BA80-9840EF391566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC737CD2-38EC-4D76-824C-C6563912CE49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="294">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -883,9 +883,6 @@
     <t>Step 126</t>
   </si>
   <si>
-    <t>//span[@class='downloadIconEnabled']</t>
-  </si>
-  <si>
     <t>DownloadReport</t>
   </si>
   <si>
@@ -907,13 +904,19 @@
     <t>Perform What-if Analysis2</t>
   </si>
   <si>
-    <t>SwitchToFramesbyIndex</t>
-  </si>
-  <si>
     <t>Step 132</t>
   </si>
   <si>
     <t>Step 133</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'history_table')]/div/table/tbody/tr[2]/td[1]/span</t>
+  </si>
+  <si>
+    <t>SwitchToFrame</t>
+  </si>
+  <si>
+    <t>pt1:_FOr1:1:_FONSr2:0:_FOTsr1:0:pt1:r61:0:if1</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1124,6 +1127,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="51">
@@ -9371,7 +9380,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -9401,6 +9410,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7829">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -20782,7 +20792,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J132" sqref="J132"/>
+      <selection pane="bottomLeft" activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -22740,7 +22750,7 @@
     </row>
     <row r="58" spans="1:13" s="4" customFormat="1">
       <c r="A58" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>93</v>
@@ -22775,7 +22785,7 @@
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1">
       <c r="A59" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>93</v>
@@ -25117,7 +25127,7 @@
         <v>93</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D127" s="3" t="str">
         <f t="shared" si="40"/>
@@ -25150,7 +25160,7 @@
         <v>93</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D128" s="3" t="str">
         <f t="shared" si="40"/>
@@ -25185,7 +25195,7 @@
         <v>93</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D129" s="3" t="str">
         <f t="shared" ref="D129" si="42">_xlfn.CONCAT(G129," ",H129)</f>
@@ -25220,26 +25230,26 @@
         <v>93</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D130" s="3" t="str">
         <f t="shared" ref="D130:D133" si="44">_xlfn.CONCAT(G130," ",H130)</f>
-        <v xml:space="preserve">SwitchToFramesbyIndex </v>
+        <v xml:space="preserve">SwitchToFrame </v>
       </c>
       <c r="E130" s="3" t="str">
         <f t="shared" ref="E130:E133" si="45">_xlfn.CONCAT("Performed"," ",G130," ",H130)</f>
-        <v xml:space="preserve">Performed SwitchToFramesbyIndex </v>
+        <v xml:space="preserve">Performed SwitchToFrame </v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="4"/>
-      <c r="J130" s="4">
-        <v>1</v>
+      <c r="J130" s="21" t="s">
+        <v>293</v>
       </c>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -25253,7 +25263,7 @@
         <v>93</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D131" s="3" t="str">
         <f t="shared" si="44"/>
@@ -25288,7 +25298,7 @@
         <v>93</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D132" s="3" t="str">
         <f t="shared" si="44"/>
@@ -25305,7 +25315,7 @@
         <v>39</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>33</v>
@@ -25325,7 +25335,7 @@
         <v>93</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D133" s="3" t="str">
         <f t="shared" si="44"/>
@@ -25342,7 +25352,7 @@
         <v>24</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="10"/>
@@ -26127,7 +26137,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -26885,13 +26895,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>26</v>

--- a/FA200_Script_PerformWhatifAnalysis_21C.xlsx
+++ b/FA200_Script_PerformWhatifAnalysis_21C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA_Master\venv\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC737CD2-38EC-4D76-824C-C6563912CE49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6249A3AA-43F6-4BAD-8E21-D827D81214A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$B$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PerformWhatifAnalysis!$A$1:$N$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PerformWhatifAnalysis!$A$1:$N$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="293">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -274,12 +274,6 @@
     <t>//button[text()='Sub']</t>
   </si>
   <si>
-    <t>Step 49</t>
-  </si>
-  <si>
-    <t>Step 50</t>
-  </si>
-  <si>
     <t>Perform What-if Analysis</t>
   </si>
   <si>
@@ -397,33 +391,6 @@
     <t>Step 39</t>
   </si>
   <si>
-    <t>Step 40</t>
-  </si>
-  <si>
-    <t>Step 41</t>
-  </si>
-  <si>
-    <t>Step 42</t>
-  </si>
-  <si>
-    <t>Step 43</t>
-  </si>
-  <si>
-    <t>Step 44</t>
-  </si>
-  <si>
-    <t>Step 45</t>
-  </si>
-  <si>
-    <t>Step 46</t>
-  </si>
-  <si>
-    <t>Step 47</t>
-  </si>
-  <si>
-    <t>Step 48</t>
-  </si>
-  <si>
     <t>FixedAsset</t>
   </si>
   <si>
@@ -433,9 +400,6 @@
     <t>Cancel</t>
   </si>
   <si>
-    <t>Step 51</t>
-  </si>
-  <si>
     <t>Tools</t>
   </si>
   <si>
@@ -574,18 +538,12 @@
     <t>Navigator</t>
   </si>
   <si>
-    <t>//*[contains(@id,'pt1:_UISmmLink::icon')]</t>
-  </si>
-  <si>
     <t>RightNavigate</t>
   </si>
   <si>
     <t>//div[@id='clusters-right-nav']</t>
   </si>
   <si>
-    <t>//div/a[text()='Tools']</t>
-  </si>
-  <si>
     <t>//div/a[text()='Scheduled Processes']</t>
   </si>
   <si>
@@ -916,7 +874,46 @@
     <t>SwitchToFrame</t>
   </si>
   <si>
-    <t>pt1:_FOr1:1:_FONSr2:0:_FOTsr1:0:pt1:r61:0:if1</t>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Explicit Wait for Navigator</t>
+  </si>
+  <si>
+    <t>Explicit Waited for Navigator</t>
+  </si>
+  <si>
+    <t>Click on Navigator</t>
+  </si>
+  <si>
+    <t>Clicked on Navigator</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Navigator Page</t>
+  </si>
+  <si>
+    <t>ScheduledProcessesLink</t>
+  </si>
+  <si>
+    <t>//a[@title='Navigator']</t>
+  </si>
+  <si>
+    <t>//div[@title='Tools']</t>
+  </si>
+  <si>
+    <t>//a[contains(@id,'Node_tools_scheduled_processes_fuse_plus')]</t>
+  </si>
+  <si>
+    <t>_FOpt1:_FOr1:0:_FONSr2:0:_FOTsr1:0:pt1:r61:0:if1</t>
   </si>
 </sst>
 </file>
@@ -930,7 +927,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1133,6 +1130,13 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="51">
@@ -9380,7 +9384,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -9410,7 +9414,13 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7829">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17243,287 +17253,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="320">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="292">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -20788,11 +20518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J126" sqref="J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -20854,7 +20584,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -20885,7 +20615,7 @@
         <v>33</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>25</v>
@@ -20899,11 +20629,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D74" si="0">_xlfn.CONCAT(G3," ",H3)</f>
+        <f t="shared" ref="D3:D70" si="0">_xlfn.CONCAT(G3," ",H3)</f>
         <v>SetText username</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E74" si="1">_xlfn.CONCAT("Performed"," ",G3," ",H3)</f>
+        <f t="shared" ref="E3:E70" si="1">_xlfn.CONCAT("Performed"," ",G3," ",H3)</f>
         <v>Performed SetText username</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -21011,7 +20741,7 @@
         <v>33</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -21050,7 +20780,7 @@
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>1</v>
@@ -21073,13 +20803,13 @@
         <v>39</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -21087,13 +20817,13 @@
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21110,7 +20840,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="10"/>
@@ -21120,13 +20850,13 @@
     </row>
     <row r="10" spans="1:14" s="15" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ref="D10" si="2">_xlfn.CONCAT(G10," ",H10)</f>
@@ -21137,17 +20867,17 @@
         <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="3"/>
@@ -21155,7 +20885,7 @@
     </row>
     <row r="11" spans="1:14" s="9" customFormat="1">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>1</v>
@@ -21178,13 +20908,13 @@
         <v>39</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -21192,7 +20922,7 @@
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>1</v>
@@ -21215,7 +20945,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="10"/>
@@ -21225,7 +20955,7 @@
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>71</v>
@@ -21254,13 +20984,13 @@
         <v>33</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>71</v>
@@ -21292,7 +21022,7 @@
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>71</v>
@@ -21321,13 +21051,13 @@
         <v>33</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>71</v>
@@ -21350,18 +21080,18 @@
         <v>39</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>71</v>
@@ -21384,16 +21114,16 @@
         <v>24</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>50</v>
@@ -21419,15 +21149,15 @@
         <v>33</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>51</v>
@@ -21452,13 +21182,13 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21486,13 +21216,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21517,10 +21247,10 @@
     </row>
     <row r="22" spans="1:13" s="15" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
@@ -21534,17 +21264,17 @@
         <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="3"/>
@@ -21552,10 +21282,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>53</v>
@@ -21575,21 +21305,21 @@
         <v>68</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>54</v>
@@ -21609,7 +21339,7 @@
         <v>66</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>75</v>
@@ -21617,13 +21347,13 @@
     </row>
     <row r="25" spans="1:13" s="15" customFormat="1">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21634,17 +21364,17 @@
         <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="3"/>
@@ -21652,13 +21382,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21675,24 +21405,24 @@
         <v>68</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="15" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21703,17 +21433,17 @@
         <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="3"/>
@@ -21721,13 +21451,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21744,24 +21474,24 @@
         <v>36</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="15" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21772,17 +21502,17 @@
         <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="3"/>
@@ -21790,13 +21520,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21824,13 +21554,13 @@
     </row>
     <row r="31" spans="1:13" s="15" customFormat="1">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21841,17 +21571,17 @@
         <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="3"/>
@@ -21859,13 +21589,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21888,10 +21618,10 @@
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>69</v>
@@ -21911,21 +21641,21 @@
         <v>39</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>70</v>
@@ -21942,24 +21672,24 @@
         <v>26</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21976,7 +21706,7 @@
         <v>24</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>25</v>
@@ -21987,13 +21717,13 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -22010,26 +21740,26 @@
         <v>39</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -22046,7 +21776,7 @@
         <v>24</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>25</v>
@@ -22057,13 +21787,13 @@
     </row>
     <row r="38" spans="1:13" s="15" customFormat="1">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -22074,17 +21804,17 @@
         <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="3"/>
@@ -22092,13 +21822,13 @@
     </row>
     <row r="39" spans="1:13" s="15" customFormat="1">
       <c r="A39" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
@@ -22121,7 +21851,7 @@
         <v>33</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -22129,13 +21859,13 @@
     </row>
     <row r="40" spans="1:13" s="15" customFormat="1">
       <c r="A40" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" si="0"/>
@@ -22162,231 +21892,232 @@
     </row>
     <row r="41" spans="1:13" s="9" customFormat="1">
       <c r="A41" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="3" t="str">
-        <f t="shared" ref="D41:D43" si="6">_xlfn.CONCAT(G41," ",H41)</f>
-        <v>ExplicitWaitType RightNavigate</v>
-      </c>
-      <c r="E41" s="3" t="str">
-        <f t="shared" ref="E41:E43" si="7">_xlfn.CONCAT("Performed"," ",G41," ",H41)</f>
-        <v>Performed ExplicitWaitType RightNavigate</v>
+      <c r="C41" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>154</v>
+      <c r="J41" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="3"/>
+      <c r="M41" s="4" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="42" spans="1:13" s="9" customFormat="1">
+    <row r="42" spans="1:13" s="9" customFormat="1" ht="13">
       <c r="A42" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>ClickElement RightNavigate</v>
-      </c>
-      <c r="E42" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Performed ClickElement RightNavigate</v>
+      <c r="C42" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="3"/>
+      <c r="M42" s="4" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1">
+    <row r="43" spans="1:13" s="9" customFormat="1">
       <c r="A43" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E43" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>71</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="G43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="3"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="44" spans="1:13" s="9" customFormat="1">
       <c r="A44" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="3" t="str">
-        <f t="shared" ref="D44:D46" si="8">_xlfn.CONCAT(G44," ",H44)</f>
-        <v>ExplicitWaitType RightNavigate</v>
-      </c>
-      <c r="E44" s="3" t="str">
-        <f t="shared" ref="E44:E46" si="9">_xlfn.CONCAT("Performed"," ",G44," ",H44)</f>
-        <v>Performed ExplicitWaitType RightNavigate</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I44" s="3" t="s">
+      <c r="C44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>154</v>
+      <c r="J44" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="3"/>
+      <c r="M44" s="4" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" s="9" customFormat="1">
+    <row r="45" spans="1:13" s="4" customFormat="1">
       <c r="A45" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>ClickElement RightNavigate</v>
-      </c>
-      <c r="E45" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Performed ClickElement RightNavigate</v>
+      <c r="C45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="4" t="str">
+        <f t="shared" ref="D45:D48" si="6">_xlfn.CONCAT(G45," ",H45)</f>
+        <v>ExplicitWaitType Tools</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f t="shared" ref="E45:E48" si="7">_xlfn.CONCAT("Performed"," ",G45," ",H45)</f>
+        <v>Performed ExplicitWaitType Tools</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="46" spans="1:13" s="4" customFormat="1">
       <c r="A46" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E46" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>ClickElement Tools</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Performed ClickElement Tools</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="47" spans="1:13" s="9" customFormat="1">
       <c r="A47" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="3" t="str">
-        <f t="shared" ref="D47:D48" si="10">_xlfn.CONCAT(G47," ",H47)</f>
-        <v>ExplicitWaitType RightNavigate</v>
-      </c>
-      <c r="E47" s="3" t="str">
-        <f t="shared" ref="E47:E48" si="11">_xlfn.CONCAT("Performed"," ",G47," ",H47)</f>
-        <v>Performed ExplicitWaitType RightNavigate</v>
+        <v>287</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>ExplicitWaitType ScheduledProcessesLink</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Performed ExplicitWaitType ScheduledProcessesLink</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>26</v>
@@ -22394,36 +22125,38 @@
       <c r="G47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I47" s="3" t="s">
+      <c r="H47" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>154</v>
+      <c r="J47" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="3"/>
+      <c r="M47" s="9" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="48" spans="1:13" s="9" customFormat="1">
       <c r="A48" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>ClickElement RightNavigate</v>
-      </c>
-      <c r="E48" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Performed ClickElement RightNavigate</v>
+        <v>287</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>ClickElement ScheduledProcessesLink</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Performed ClickElement ScheduledProcessesLink</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>26</v>
@@ -22431,32 +22164,36 @@
       <c r="G48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="10"/>
+      <c r="H48" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="3"/>
+      <c r="M48" s="9" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="49" spans="1:13" s="15" customFormat="1">
+    <row r="49" spans="1:13" s="4" customFormat="1">
       <c r="A49" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Tools</v>
+        <v>ExplicitWaitType ScheduleNewProcess</v>
       </c>
       <c r="E49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Tools</v>
+        <v>Performed ExplicitWaitType ScheduleNewProcess</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>26</v>
@@ -22465,173 +22202,166 @@
         <v>39</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+        <v>142</v>
+      </c>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" s="15" customFormat="1">
+    <row r="50" spans="1:13" s="4" customFormat="1">
       <c r="A50" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Tools</v>
+        <v>ExplicitWaitType Refresh</v>
       </c>
       <c r="E50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Tools</v>
+        <v>Performed ExplicitWaitType Refresh</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" s="15" customFormat="1">
+    <row r="51" spans="1:13" s="4" customFormat="1">
       <c r="A51" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType ScheduledProcess</v>
+        <v>ClickElement Refresh</v>
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType ScheduledProcess</v>
+        <v>Performed ClickElement Refresh</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="I51" s="16"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="16"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" s="15" customFormat="1">
+    <row r="52" spans="1:13" s="4" customFormat="1">
       <c r="A52" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement ScheduledProcess</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E52" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement ScheduledProcess</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+        <v>154</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" s="4" customFormat="1">
       <c r="A53" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType ScheduleNewProcess</v>
+        <v>ClickElement ExpandSearch</v>
       </c>
       <c r="E53" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType ScheduleNewProcess</v>
+        <v>Performed ClickElement ExpandSearch</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="M53" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="17"/>
+      <c r="M53" s="9"/>
     </row>
     <row r="54" spans="1:13" s="4" customFormat="1">
       <c r="A54" s="3" t="s">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType Refresh</v>
+        <f t="shared" ref="D54:D55" si="8">_xlfn.CONCAT(G54," ",H54)</f>
+        <v>ExplicitWaitType Namep</v>
       </c>
       <c r="E54" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Refresh</v>
+        <f t="shared" ref="E54:E55" si="9">_xlfn.CONCAT("Performed"," ",G54," ",H54)</f>
+        <v>Performed ExplicitWaitType Namep</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>26</v>
@@ -22640,201 +22370,202 @@
         <v>39</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="M54" s="3"/>
+      <c r="J54" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M54" s="9"/>
     </row>
     <row r="55" spans="1:13" s="4" customFormat="1">
       <c r="A55" s="3" t="s">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement Refresh</v>
+        <f t="shared" si="8"/>
+        <v>SetText Namep</v>
       </c>
       <c r="E55" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement Refresh</v>
+        <f t="shared" si="9"/>
+        <v>Performed SetText Namep</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="16"/>
-      <c r="M55" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M55" s="9"/>
     </row>
     <row r="56" spans="1:13" s="4" customFormat="1">
       <c r="A56" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>ExplicitWaitType ProcessIDtxtAct</v>
       </c>
       <c r="E56" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>Performed ExplicitWaitType ProcessIDtxtAct</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H56" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="I56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="3"/>
+      <c r="J56" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M56" s="9"/>
     </row>
     <row r="57" spans="1:13" s="4" customFormat="1">
       <c r="A57" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement ExpandSearch</v>
+        <v>SetText ProcessIDtxtAct</v>
       </c>
       <c r="E57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement ExpandSearch</v>
+        <v>Performed SetText ProcessIDtxtAct</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="17"/>
+        <v>125</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:13" s="4" customFormat="1">
       <c r="A58" s="3" t="s">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f t="shared" ref="D58:D59" si="12">_xlfn.CONCAT(G58," ",H58)</f>
-        <v>ExplicitWaitType Namep</v>
+        <f t="shared" si="0"/>
+        <v>ClickElement SearchBtn</v>
       </c>
       <c r="E58" s="3" t="str">
-        <f t="shared" ref="E58:E59" si="13">_xlfn.CONCAT("Performed"," ",G58," ",H58)</f>
-        <v>Performed ExplicitWaitType Namep</v>
+        <f t="shared" si="1"/>
+        <v>Performed ClickElement SearchBtn</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>155</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="I58" s="16"/>
+      <c r="J58" s="17"/>
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1">
       <c r="A59" s="3" t="s">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>SetText Namep</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E59" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>Performed SetText Namep</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>169</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H59" s="9"/>
       <c r="I59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>169</v>
+      <c r="J59" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:13" s="4" customFormat="1">
       <c r="A60" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType ProcessIDtxtAct</v>
+        <v>ExplicitWaitType Refresh</v>
       </c>
       <c r="E60" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType ProcessIDtxtAct</v>
+        <v>Performed ExplicitWaitType Refresh</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>26</v>
@@ -22843,230 +22574,220 @@
         <v>39</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J60" s="11" t="s">
-        <v>155</v>
+      <c r="J60" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="M60" s="9"/>
     </row>
     <row r="61" spans="1:13" s="4" customFormat="1">
       <c r="A61" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText ProcessIDtxtAct</v>
+        <v>ClickElementUsingJS Refresh</v>
       </c>
       <c r="E61" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText ProcessIDtxtAct</v>
+        <v>Performed ClickElementUsingJS Refresh</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="I61" s="16"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="16"/>
       <c r="M61" s="9"/>
     </row>
     <row r="62" spans="1:13" s="4" customFormat="1">
       <c r="A62" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement SearchBtn</v>
+        <v>VerifyText CheckStatus</v>
       </c>
       <c r="E62" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement SearchBtn</v>
+        <v>Performed VerifyText CheckStatus</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="I62" s="16"/>
-      <c r="J62" s="17"/>
-      <c r="M62" s="9"/>
+      <c r="J62" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="K62" s="16"/>
+      <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" s="4" customFormat="1">
-      <c r="A63" s="3" t="s">
-        <v>81</v>
-      </c>
+    <row r="63" spans="1:13" ht="12" customHeight="1">
       <c r="B63" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>ExplicitWaitType UsernameClick</v>
       </c>
       <c r="E63" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H63" s="9"/>
+        <v>Performed ExplicitWaitType UsernameClick</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="I63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M63" s="9"/>
+      <c r="J63" s="11" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="64" spans="1:13" s="4" customFormat="1">
-      <c r="A64" s="3" t="s">
-        <v>81</v>
-      </c>
+    <row r="64" spans="1:13">
       <c r="B64" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="D64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Refresh</v>
+        <v>ClickElement UsernameClick</v>
       </c>
       <c r="E64" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Refresh</v>
-      </c>
-      <c r="F64" s="4" t="s">
+        <v>Performed ClickElement UsernameClick</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>95</v>
+      <c r="G64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="M64" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="65" spans="1:13" s="4" customFormat="1">
-      <c r="A65" s="3" t="s">
-        <v>81</v>
-      </c>
+    <row r="65" spans="1:13">
       <c r="B65" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="D65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElementUsingJS Refresh</v>
+        <v>ExplicitWaitType SignOut</v>
       </c>
       <c r="E65" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElementUsingJS Refresh</v>
-      </c>
-      <c r="F65" s="4" t="s">
+        <v>Performed ExplicitWaitType SignOut</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I65" s="16"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="16"/>
-      <c r="M65" s="9"/>
+      <c r="G65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="66" spans="1:13" s="4" customFormat="1">
-      <c r="A66" s="3" t="s">
-        <v>81</v>
-      </c>
+    <row r="66" spans="1:13">
       <c r="B66" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D66" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>VerifyText CheckStatus</v>
+        <v>ClickElement SignOut</v>
       </c>
       <c r="E66" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed VerifyText CheckStatus</v>
-      </c>
-      <c r="F66" s="4" t="s">
+        <v>Performed ClickElement SignOut</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I66" s="16"/>
-      <c r="J66" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="K66" s="16"/>
-      <c r="M66" s="3"/>
+      <c r="G66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="67" spans="1:13" ht="12" customHeight="1">
+    <row r="67" spans="1:13">
       <c r="B67" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="D67" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType UsernameClick</v>
+        <v>ExplicitWaitType LogoutConsentDiv</v>
       </c>
       <c r="E67" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType UsernameClick</v>
+        <v>Performed ExplicitWaitType LogoutConsentDiv</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>26</v>
@@ -23075,100 +22796,97 @@
         <v>39</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="B68" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D68" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement UsernameClick</v>
+        <v>ExplicitWaitType ConfirmBtn</v>
       </c>
       <c r="E68" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement UsernameClick</v>
+        <v>Performed ExplicitWaitType ConfirmBtn</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="B69" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D69" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType SignOut</v>
+        <v>ClickElement ConfirmBtn</v>
       </c>
       <c r="E69" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType SignOut</v>
+        <v>Performed ClickElement ConfirmBtn</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>155</v>
+        <v>25</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="B70" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D70" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement SignOut</v>
+        <v xml:space="preserve">CloseBrowser </v>
       </c>
       <c r="E70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement SignOut</v>
+        <v xml:space="preserve">Performed CloseBrowser </v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>25</v>
@@ -23177,177 +22895,196 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" s="4" customFormat="1">
+      <c r="A71" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B71" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType LogoutConsentDiv</v>
+        <f t="shared" ref="D71" si="10">_xlfn.CONCAT(G71," ",H71)</f>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E71" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType LogoutConsentDiv</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>63</v>
-      </c>
+        <f t="shared" ref="E71" si="11">_xlfn.CONCAT("Performed"," ",G71," ",H71)</f>
+        <v xml:space="preserve">Performed WaitForDuration </v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H71" s="9"/>
       <c r="I71" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J71" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="J71" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M71" s="9"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" s="15" customFormat="1">
+      <c r="A72" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B72" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType ConfirmBtn</v>
+        <f t="shared" ref="D72:D73" si="12">_xlfn.CONCAT(G72," ",H72)</f>
+        <v>ExplicitWaitType ScheduleNewProcess</v>
       </c>
       <c r="E72" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType ConfirmBtn</v>
-      </c>
-      <c r="F72" s="3" t="s">
+        <f t="shared" ref="E72:E73" si="13">_xlfn.CONCAT("Performed"," ",G72," ",H72)</f>
+        <v>Performed ExplicitWaitType ScheduleNewProcess</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>42</v>
+      <c r="H72" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J72" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="J72" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" s="15" customFormat="1">
+      <c r="A73" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B73" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement ConfirmBtn</v>
+        <f t="shared" si="12"/>
+        <v>ClickElement ScheduleNewProcess</v>
       </c>
       <c r="E73" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement ConfirmBtn</v>
-      </c>
-      <c r="F73" s="3" t="s">
+        <f t="shared" si="13"/>
+        <v>Performed ClickElement ScheduleNewProcess</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="H73" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" s="15" customFormat="1">
+      <c r="A74" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B74" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">CloseBrowser </v>
+        <f t="shared" ref="D74:D75" si="14">_xlfn.CONCAT(G74," ",H74)</f>
+        <v>ExplicitWaitType SearchName</v>
       </c>
       <c r="E74" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed CloseBrowser </v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>45</v>
+        <f t="shared" ref="E74:E75" si="15">_xlfn.CONCAT("Performed"," ",G74," ",H74)</f>
+        <v>Performed ExplicitWaitType SearchName</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" s="4" customFormat="1">
+    <row r="75" spans="1:13" s="15" customFormat="1">
       <c r="A75" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" ref="D75" si="14">_xlfn.CONCAT(G75," ",H75)</f>
-        <v xml:space="preserve">WaitForDuration </v>
+        <f t="shared" si="14"/>
+        <v>ClickElement SearchName</v>
       </c>
       <c r="E75" s="3" t="str">
-        <f t="shared" ref="E75" si="15">_xlfn.CONCAT("Performed"," ",G75," ",H75)</f>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <f t="shared" si="15"/>
+        <v>Performed ClickElement SearchName</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H75" s="9"/>
-      <c r="I75" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M75" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" s="15" customFormat="1">
       <c r="A76" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D76" s="3" t="str">
         <f t="shared" ref="D76:D77" si="16">_xlfn.CONCAT(G76," ",H76)</f>
-        <v>ExplicitWaitType ScheduleNewProcess</v>
+        <v>ExplicitWaitType SearchLink</v>
       </c>
       <c r="E76" s="3" t="str">
         <f t="shared" ref="E76:E77" si="17">_xlfn.CONCAT("Performed"," ",G76," ",H76)</f>
-        <v>Performed ExplicitWaitType ScheduleNewProcess</v>
+        <v>Performed ExplicitWaitType SearchLink</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>26</v>
@@ -23355,14 +23092,14 @@
       <c r="G76" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>94</v>
+      <c r="H76" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -23370,21 +23107,21 @@
     </row>
     <row r="77" spans="1:13" s="15" customFormat="1">
       <c r="A77" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D77" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>ClickElement ScheduleNewProcess</v>
+        <v>ClickElement SearchLink</v>
       </c>
       <c r="E77" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>Performed ClickElement ScheduleNewProcess</v>
+        <v>Performed ClickElement SearchLink</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>26</v>
@@ -23392,8 +23129,8 @@
       <c r="G77" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>94</v>
+      <c r="H77" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="10"/>
@@ -23403,21 +23140,21 @@
     </row>
     <row r="78" spans="1:13" s="15" customFormat="1">
       <c r="A78" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f t="shared" ref="D78:D79" si="18">_xlfn.CONCAT(G78," ",H78)</f>
-        <v>ExplicitWaitType SearchName</v>
+        <f t="shared" ref="D78:D82" si="18">_xlfn.CONCAT(G78," ",H78)</f>
+        <v>ExplicitWaitType ProcessName</v>
       </c>
       <c r="E78" s="3" t="str">
-        <f t="shared" ref="E78:E79" si="19">_xlfn.CONCAT("Performed"," ",G78," ",H78)</f>
-        <v>Performed ExplicitWaitType SearchName</v>
+        <f t="shared" ref="E78:E82" si="19">_xlfn.CONCAT("Performed"," ",G78," ",H78)</f>
+        <v>Performed ExplicitWaitType ProcessName</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>26</v>
@@ -23426,13 +23163,13 @@
         <v>39</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -23440,54 +23177,58 @@
     </row>
     <row r="79" spans="1:13" s="15" customFormat="1">
       <c r="A79" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D79" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>ClickElement SearchName</v>
+        <v>SetText ProcessName</v>
       </c>
       <c r="E79" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>Performed ClickElement SearchName</v>
+        <v>Performed SetText ProcessName</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="10"/>
+        <v>174</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13" s="15" customFormat="1">
       <c r="A80" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f t="shared" ref="D80:D81" si="20">_xlfn.CONCAT(G80," ",H80)</f>
-        <v>ExplicitWaitType SearchLink</v>
+        <f t="shared" si="18"/>
+        <v>ExplicitWaitType BtnSearch</v>
       </c>
       <c r="E80" s="3" t="str">
-        <f t="shared" ref="E80:E81" si="21">_xlfn.CONCAT("Performed"," ",G80," ",H80)</f>
-        <v>Performed ExplicitWaitType SearchLink</v>
+        <f t="shared" si="19"/>
+        <v>Performed ExplicitWaitType BtnSearch</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>26</v>
@@ -23496,13 +23237,13 @@
         <v>39</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -23510,21 +23251,21 @@
     </row>
     <row r="81" spans="1:13" s="15" customFormat="1">
       <c r="A81" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>ClickElement SearchLink</v>
+        <f t="shared" si="18"/>
+        <v>ClickElement BtnSearch</v>
       </c>
       <c r="E81" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>Performed ClickElement SearchLink</v>
+        <f t="shared" si="19"/>
+        <v>Performed ClickElement BtnSearch</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>26</v>
@@ -23533,7 +23274,7 @@
         <v>24</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="10"/>
@@ -23541,75 +23282,73 @@
       <c r="L81" s="4"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" s="15" customFormat="1">
+    <row r="82" spans="1:13" s="4" customFormat="1">
       <c r="A82" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f t="shared" ref="D82:D86" si="22">_xlfn.CONCAT(G82," ",H82)</f>
-        <v>ExplicitWaitType ProcessName</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E82" s="3" t="str">
-        <f t="shared" ref="E82:E86" si="23">_xlfn.CONCAT("Performed"," ",G82," ",H82)</f>
-        <v>Performed ExplicitWaitType ProcessName</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H82" s="9"/>
       <c r="I82" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J82" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="3"/>
+      <c r="J82" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
     </row>
     <row r="83" spans="1:13" s="15" customFormat="1">
       <c r="A83" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>SetText ProcessName</v>
+        <f t="shared" ref="D83:D85" si="20">_xlfn.CONCAT(G83," ",H83)</f>
+        <v>ExplicitWaitType SearchedResult</v>
       </c>
       <c r="E83" s="3" t="str">
-        <f t="shared" si="23"/>
-        <v>Performed SetText ProcessName</v>
+        <f t="shared" ref="E83:E85" si="21">_xlfn.CONCAT("Performed"," ",G83," ",H83)</f>
+        <v>Performed ExplicitWaitType SearchedResult</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I83" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>188</v>
+      <c r="J83" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -23617,550 +23356,552 @@
     </row>
     <row r="84" spans="1:13" s="15" customFormat="1">
       <c r="A84" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>ExplicitWaitType BtnSearch</v>
+        <f t="shared" si="20"/>
+        <v>ClickElement SearchedResult</v>
       </c>
       <c r="E84" s="3" t="str">
-        <f t="shared" si="23"/>
-        <v>Performed ExplicitWaitType BtnSearch</v>
+        <f t="shared" si="21"/>
+        <v>Performed ClickElement SearchedResult</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>154</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="I84" s="4"/>
+      <c r="J84" s="10"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" s="15" customFormat="1">
+    <row r="85" spans="1:13" s="4" customFormat="1">
       <c r="A85" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>ClickElement BtnSearch</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E85" s="3" t="str">
-        <f t="shared" si="23"/>
-        <v>Performed ClickElement BtnSearch</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F85" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H85" s="9"/>
+      <c r="I85" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+    </row>
+    <row r="86" spans="1:13" s="15" customFormat="1">
+      <c r="A86" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" s="3" t="str">
+        <f t="shared" ref="D86:D88" si="22">_xlfn.CONCAT(G86," ",H86)</f>
+        <v>ExplicitWaitType SearchedResultOk</v>
+      </c>
+      <c r="E86" s="3" t="str">
+        <f t="shared" ref="E86:E88" si="23">_xlfn.CONCAT("Performed"," ",G86," ",H86)</f>
+        <v>Performed ExplicitWaitType SearchedResultOk</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:13" s="4" customFormat="1">
-      <c r="A86" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D86" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E86" s="3" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="G86" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H86" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I86" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J86" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
+      <c r="J86" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:13" s="15" customFormat="1">
       <c r="A87" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f t="shared" ref="D87:D89" si="24">_xlfn.CONCAT(G87," ",H87)</f>
-        <v>ExplicitWaitType SearchedResult</v>
+        <f t="shared" si="22"/>
+        <v>ClickElement SearchedResultOk</v>
       </c>
       <c r="E87" s="3" t="str">
-        <f t="shared" ref="E87:E89" si="25">_xlfn.CONCAT("Performed"," ",G87," ",H87)</f>
-        <v>Performed ExplicitWaitType SearchedResult</v>
+        <f t="shared" si="23"/>
+        <v>Performed ClickElement SearchedResultOk</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>154</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="I87" s="4"/>
+      <c r="J87" s="10"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" s="15" customFormat="1">
+    <row r="88" spans="1:13" s="4" customFormat="1">
       <c r="A88" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>ClickElement SearchedResult</v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E88" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v>Performed ClickElement SearchedResult</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F88" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H88" s="9"/>
+      <c r="I88" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+    </row>
+    <row r="89" spans="1:13" s="15" customFormat="1">
+      <c r="A89" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="3" t="str">
+        <f t="shared" ref="D89:D93" si="24">_xlfn.CONCAT(G89," ",H89)</f>
+        <v>ExplicitWaitType NewProcessOK</v>
+      </c>
+      <c r="E89" s="3" t="str">
+        <f t="shared" ref="E89:E93" si="25">_xlfn.CONCAT("Performed"," ",G89," ",H89)</f>
+        <v>Performed ExplicitWaitType NewProcessOK</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="1:13" s="4" customFormat="1">
-      <c r="A89" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D89" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E89" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="G89" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H89" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="I89" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J89" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
+      <c r="J89" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="3"/>
     </row>
     <row r="90" spans="1:13" s="15" customFormat="1">
       <c r="A90" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f t="shared" ref="D90:D92" si="26">_xlfn.CONCAT(G90," ",H90)</f>
-        <v>ExplicitWaitType SearchedResultOk</v>
+        <f t="shared" si="24"/>
+        <v>ClickElement NewProcessOK</v>
       </c>
       <c r="E90" s="3" t="str">
-        <f t="shared" ref="E90:E92" si="27">_xlfn.CONCAT("Performed"," ",G90," ",H90)</f>
-        <v>Performed ExplicitWaitType SearchedResultOk</v>
+        <f t="shared" si="25"/>
+        <v>Performed ClickElement NewProcessOK</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>154</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="I90" s="4"/>
+      <c r="J90" s="10"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13" s="15" customFormat="1">
+    <row r="91" spans="1:13" s="4" customFormat="1">
       <c r="A91" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>ClickElement SearchedResultOk</v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E91" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v>Performed ClickElement SearchedResultOk</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H91" s="9"/>
+      <c r="I91" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+    </row>
+    <row r="92" spans="1:13" s="9" customFormat="1">
+      <c r="A92" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>ExplicitWaitType SelectBookForProcess</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>Performed ExplicitWaitType SelectBookForProcess</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I91" s="4"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="3"/>
+      <c r="G92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
     </row>
-    <row r="92" spans="1:13" s="4" customFormat="1">
-      <c r="A92" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D92" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E92" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H92" s="9"/>
-      <c r="I92" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J92" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-    </row>
-    <row r="93" spans="1:13" s="15" customFormat="1">
+    <row r="93" spans="1:13" s="9" customFormat="1">
       <c r="A93" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D93" s="3" t="str">
-        <f t="shared" ref="D93:D97" si="28">_xlfn.CONCAT(G93," ",H93)</f>
-        <v>ExplicitWaitType NewProcessOK</v>
-      </c>
-      <c r="E93" s="3" t="str">
-        <f t="shared" ref="E93:E97" si="29">_xlfn.CONCAT("Performed"," ",G93," ",H93)</f>
-        <v>Performed ExplicitWaitType NewProcessOK</v>
+        <v>233</v>
+      </c>
+      <c r="D93" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>SelectItemByVisibleText SelectBookForProcess</v>
+      </c>
+      <c r="E93" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>Performed SelectItemByVisibleText SelectBookForProcess</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I93" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J93" s="8" t="s">
-        <v>154</v>
+      <c r="J93" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="3"/>
+      <c r="M93" s="4"/>
     </row>
-    <row r="94" spans="1:13" s="15" customFormat="1">
+    <row r="94" spans="1:13" s="4" customFormat="1">
       <c r="A94" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>ClickElement NewProcessOK</v>
+        <f t="shared" ref="D94:D98" si="26">_xlfn.CONCAT(G94," ",H94)</f>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E94" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>Performed ClickElement NewProcessOK</v>
+        <f t="shared" ref="E94:E98" si="27">_xlfn.CONCAT("Performed"," ",G94," ",H94)</f>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F94" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H94" s="9"/>
+      <c r="I94" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J94" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+    </row>
+    <row r="95" spans="1:13" s="9" customFormat="1">
+      <c r="A95" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>ExplicitWaitType SelectProcessID</v>
+      </c>
+      <c r="E95" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>Performed ExplicitWaitType SelectProcessID</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="4"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="1:13" s="4" customFormat="1">
-      <c r="A95" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D95" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E95" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="G95" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H95" s="9"/>
-      <c r="I95" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I95" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J95" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
+      <c r="J95" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
     </row>
     <row r="96" spans="1:13" s="9" customFormat="1">
       <c r="A96" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D96" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v>ExplicitWaitType SelectBookForProcess</v>
+        <f t="shared" si="26"/>
+        <v>SelectItemByVisibleText SelectProcessID</v>
       </c>
       <c r="E96" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>Performed ExplicitWaitType SelectBookForProcess</v>
+        <f t="shared" si="27"/>
+        <v>Performed SelectItemByVisibleText SelectProcessID</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>198</v>
+        <v>68</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J96" s="11" t="s">
-        <v>155</v>
+        <v>126</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
     </row>
-    <row r="97" spans="1:13" s="9" customFormat="1">
+    <row r="97" spans="1:13" s="15" customFormat="1">
       <c r="A97" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D97" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v>SelectItemByVisibleText SelectBookForProcess</v>
-      </c>
-      <c r="E97" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>Performed SelectItemByVisibleText SelectBookForProcess</v>
+        <v>237</v>
+      </c>
+      <c r="D97" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>ExplicitWaitType Advanced</v>
+      </c>
+      <c r="E97" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v>Performed ExplicitWaitType Advanced</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I97" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I97" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J97" s="4" t="s">
-        <v>72</v>
+      <c r="J97" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
+      <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" s="4" customFormat="1">
+    <row r="98" spans="1:13" s="15" customFormat="1">
       <c r="A98" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D98" s="3" t="str">
-        <f t="shared" ref="D98:D102" si="30">_xlfn.CONCAT(G98," ",H98)</f>
-        <v xml:space="preserve">WaitForDuration </v>
+        <f t="shared" si="26"/>
+        <v>ClickElement Advanced</v>
       </c>
       <c r="E98" s="3" t="str">
-        <f t="shared" ref="E98:E102" si="31">_xlfn.CONCAT("Performed"," ",G98," ",H98)</f>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <f t="shared" si="27"/>
+        <v>Performed ClickElement Advanced</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H98" s="9"/>
-      <c r="I98" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J98" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" s="9" customFormat="1">
+    <row r="99" spans="1:13" s="15" customFormat="1">
       <c r="A99" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D99" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>ExplicitWaitType SelectProcessID</v>
-      </c>
-      <c r="E99" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>Performed ExplicitWaitType SelectProcessID</v>
+        <v>239</v>
+      </c>
+      <c r="D99" s="3" t="str">
+        <f t="shared" ref="D99:D100" si="28">_xlfn.CONCAT(G99," ",H99)</f>
+        <v>ExplicitWaitType Output</v>
+      </c>
+      <c r="E99" s="3" t="str">
+        <f t="shared" ref="E99:E100" si="29">_xlfn.CONCAT("Performed"," ",G99," ",H99)</f>
+        <v>Performed ExplicitWaitType Output</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>26</v>
@@ -24169,72 +23910,68 @@
         <v>39</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I99" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I99" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J99" s="11" t="s">
-        <v>155</v>
+      <c r="J99" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
+      <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" s="9" customFormat="1">
+    <row r="100" spans="1:13" s="15" customFormat="1">
       <c r="A100" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D100" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>SelectItemByVisibleText SelectProcessID</v>
-      </c>
-      <c r="E100" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>Performed SelectItemByVisibleText SelectProcessID</v>
+        <v>240</v>
+      </c>
+      <c r="D100" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>ClickElement Output</v>
+      </c>
+      <c r="E100" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>Performed ClickElement Output</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I100" s="4"/>
+      <c r="J100" s="10"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
+      <c r="M100" s="3"/>
     </row>
     <row r="101" spans="1:13" s="15" customFormat="1">
       <c r="A101" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D101" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>ExplicitWaitType Advanced</v>
+        <f t="shared" ref="D101:D103" si="30">_xlfn.CONCAT(G101," ",H101)</f>
+        <v>ExplicitWaitType AddDoc</v>
       </c>
       <c r="E101" s="3" t="str">
-        <f t="shared" si="31"/>
-        <v>Performed ExplicitWaitType Advanced</v>
+        <f t="shared" ref="E101:E103" si="31">_xlfn.CONCAT("Performed"," ",G101," ",H101)</f>
+        <v>Performed ExplicitWaitType AddDoc</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>26</v>
@@ -24243,13 +23980,13 @@
         <v>39</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -24257,21 +23994,21 @@
     </row>
     <row r="102" spans="1:13" s="15" customFormat="1">
       <c r="A102" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D102" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>ClickElement Advanced</v>
+        <v>ClickElement AddDoc</v>
       </c>
       <c r="E102" s="3" t="str">
         <f t="shared" si="31"/>
-        <v>Performed ClickElement Advanced</v>
+        <v>Performed ClickElement AddDoc</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>26</v>
@@ -24280,7 +24017,7 @@
         <v>24</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="10"/>
@@ -24288,307 +24025,302 @@
       <c r="L102" s="4"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" s="15" customFormat="1">
+    <row r="103" spans="1:13" s="4" customFormat="1">
       <c r="A103" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D103" s="3" t="str">
-        <f t="shared" ref="D103:D104" si="32">_xlfn.CONCAT(G103," ",H103)</f>
-        <v>ExplicitWaitType Output</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E103" s="3" t="str">
-        <f t="shared" ref="E103:E104" si="33">_xlfn.CONCAT("Performed"," ",G103," ",H103)</f>
-        <v>Performed ExplicitWaitType Output</v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H103" s="9"/>
       <c r="I103" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
     </row>
     <row r="104" spans="1:13" s="15" customFormat="1">
       <c r="A104" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D104" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>ClickElement Output</v>
+        <f t="shared" ref="D104:D110" si="32">_xlfn.CONCAT(G104," ",H104)</f>
+        <v>ExplicitWaitType SelectFormat</v>
       </c>
       <c r="E104" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>Performed ClickElement Output</v>
+        <f t="shared" ref="E104:E110" si="33">_xlfn.CONCAT("Performed"," ",G104," ",H104)</f>
+        <v>Performed ExplicitWaitType SelectFormat</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I104" s="4"/>
-      <c r="J104" s="10"/>
+        <v>193</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="1:13" s="15" customFormat="1">
       <c r="A105" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f t="shared" ref="D105:D107" si="34">_xlfn.CONCAT(G105," ",H105)</f>
-        <v>ExplicitWaitType AddDoc</v>
+        <f t="shared" si="32"/>
+        <v>SelectItemByVisibleText SelectFormat</v>
       </c>
       <c r="E105" s="3" t="str">
-        <f t="shared" ref="E105:E107" si="35">_xlfn.CONCAT("Performed"," ",G105," ",H105)</f>
-        <v>Performed ExplicitWaitType AddDoc</v>
+        <f t="shared" si="33"/>
+        <v>Performed SelectItemByVisibleText SelectFormat</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I105" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I105" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J105" s="8" t="s">
-        <v>154</v>
+      <c r="J105" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" s="15" customFormat="1">
+    <row r="106" spans="1:13" s="4" customFormat="1">
       <c r="A106" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>ClickElement AddDoc</v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E106" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>Performed ClickElement AddDoc</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F106" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H106" s="9"/>
+      <c r="I106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+    </row>
+    <row r="107" spans="1:13" s="15" customFormat="1">
+      <c r="A107" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D107" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>ExplicitWaitType SubmitProcess</v>
+      </c>
+      <c r="E107" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>Performed ExplicitWaitType SubmitProcess</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I106" s="4"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="3"/>
-    </row>
-    <row r="107" spans="1:13" s="4" customFormat="1">
-      <c r="A107" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D107" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E107" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="G107" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H107" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="I107" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" s="15" customFormat="1">
+    <row r="108" spans="1:13" s="15" customFormat="1" ht="12" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f t="shared" ref="D108:D114" si="36">_xlfn.CONCAT(G108," ",H108)</f>
-        <v>ExplicitWaitType SelectFormat</v>
+        <f t="shared" si="32"/>
+        <v>ClickElement SubmitProcess</v>
       </c>
       <c r="E108" s="3" t="str">
-        <f t="shared" ref="E108:E114" si="37">_xlfn.CONCAT("Performed"," ",G108," ",H108)</f>
-        <v>Performed ExplicitWaitType SelectFormat</v>
+        <f t="shared" si="33"/>
+        <v>Performed ClickElement SubmitProcess</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J108" s="8" t="s">
-        <v>154</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="I108" s="4"/>
+      <c r="J108" s="10"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13" s="15" customFormat="1">
+    <row r="109" spans="1:13" ht="12" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D109" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>SelectItemByVisibleText SelectFormat</v>
+        <f t="shared" si="32"/>
+        <v>ExplicitWaitType ProcessConfirmation</v>
       </c>
       <c r="E109" s="3" t="str">
-        <f t="shared" si="37"/>
-        <v>Performed SelectItemByVisibleText SelectFormat</v>
-      </c>
-      <c r="F109" s="4" t="s">
+        <f t="shared" si="33"/>
+        <v>Performed ExplicitWaitType ProcessConfirmation</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G109" s="4" t="s">
-        <v>68</v>
+      <c r="G109" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I109" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I109" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="3"/>
+      <c r="J109" s="11" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="110" spans="1:13" s="4" customFormat="1">
+    <row r="110" spans="1:13">
       <c r="A110" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D110" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <f t="shared" si="32"/>
+        <v>GetNumbersOfTextElement ProcessConfirmation</v>
       </c>
       <c r="E110" s="3" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>167</v>
+        <f t="shared" si="33"/>
+        <v>Performed GetNumbersOfTextElement ProcessConfirmation</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H110" s="9"/>
-      <c r="I110" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J110" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="111" spans="1:13" s="15" customFormat="1">
       <c r="A111" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>ExplicitWaitType SubmitProcess</v>
+        <f t="shared" ref="D111:D121" si="34">_xlfn.CONCAT(G111," ",H111)</f>
+        <v>ExplicitWaitType ConfOk</v>
       </c>
       <c r="E111" s="3" t="str">
-        <f t="shared" si="37"/>
-        <v>Performed ExplicitWaitType SubmitProcess</v>
+        <f t="shared" ref="E111:E121" si="35">_xlfn.CONCAT("Performed"," ",G111," ",H111)</f>
+        <v>Performed ExplicitWaitType ConfOk</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>26</v>
@@ -24597,13 +24329,13 @@
         <v>39</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -24611,21 +24343,21 @@
     </row>
     <row r="112" spans="1:13" s="15" customFormat="1" ht="12" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D112" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>ClickElement SubmitProcess</v>
+        <f t="shared" si="34"/>
+        <v>ClickElement ConfOk</v>
       </c>
       <c r="E112" s="3" t="str">
-        <f t="shared" si="37"/>
-        <v>Performed ClickElement SubmitProcess</v>
+        <f t="shared" si="35"/>
+        <v>Performed ClickElement ConfOk</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>26</v>
@@ -24634,7 +24366,7 @@
         <v>24</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="10"/>
@@ -24642,125 +24374,128 @@
       <c r="L112" s="4"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="12" customHeight="1">
+    <row r="113" spans="1:13" s="4" customFormat="1">
       <c r="A113" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D113" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>ExplicitWaitType ProcessConfirmation</v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E113" s="3" t="str">
-        <f t="shared" si="37"/>
-        <v>Performed ExplicitWaitType ProcessConfirmation</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>211</v>
-      </c>
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">Performed WaitForDuration </v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H113" s="9"/>
       <c r="I113" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J113" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="J113" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" s="4" customFormat="1">
       <c r="A114" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D114" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>GetNumbersOfTextElement ProcessConfirmation</v>
+        <f t="shared" si="34"/>
+        <v>ExplicitWaitType ProcessIDtxtAct</v>
       </c>
       <c r="E114" s="3" t="str">
-        <f t="shared" si="37"/>
-        <v>Performed GetNumbersOfTextElement ProcessConfirmation</v>
-      </c>
-      <c r="F114" s="3" t="s">
+        <f t="shared" si="35"/>
+        <v>Performed ExplicitWaitType ProcessIDtxtAct</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>213</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M114" s="9"/>
     </row>
-    <row r="115" spans="1:13" s="15" customFormat="1">
+    <row r="115" spans="1:13" s="4" customFormat="1">
       <c r="A115" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D115" s="3" t="str">
-        <f t="shared" ref="D115:D125" si="38">_xlfn.CONCAT(G115," ",H115)</f>
-        <v>ExplicitWaitType ConfOk</v>
+        <f t="shared" si="34"/>
+        <v>SetText ProcessIDtxtAct</v>
       </c>
       <c r="E115" s="3" t="str">
-        <f t="shared" ref="E115:E125" si="39">_xlfn.CONCAT("Performed"," ",G115," ",H115)</f>
-        <v>Performed ExplicitWaitType ConfOk</v>
+        <f t="shared" si="35"/>
+        <v>Performed SetText ProcessIDtxtAct</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J115" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="M115" s="9"/>
     </row>
-    <row r="116" spans="1:13" s="15" customFormat="1" ht="12" customHeight="1">
+    <row r="116" spans="1:13" s="4" customFormat="1">
       <c r="A116" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D116" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>ClickElement ConfOk</v>
+        <f t="shared" si="34"/>
+        <v>ClickElement SearchBtn</v>
       </c>
       <c r="E116" s="3" t="str">
-        <f t="shared" si="39"/>
-        <v>Performed ClickElement ConfOk</v>
+        <f t="shared" si="35"/>
+        <v>Performed ClickElement SearchBtn</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>26</v>
@@ -24768,67 +24503,63 @@
       <c r="G116" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H116" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I116" s="4"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="3"/>
+      <c r="H116" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I116" s="16"/>
+      <c r="J116" s="17"/>
+      <c r="M116" s="9"/>
     </row>
     <row r="117" spans="1:13" s="4" customFormat="1">
       <c r="A117" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D117" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E117" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
+        <v>145</v>
+      </c>
       <c r="M117" s="9"/>
     </row>
     <row r="118" spans="1:13" s="4" customFormat="1">
       <c r="A118" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D118" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>ExplicitWaitType ProcessIDtxtAct</v>
+        <f t="shared" si="34"/>
+        <v>ExplicitWaitType Refresh</v>
       </c>
       <c r="E118" s="3" t="str">
-        <f t="shared" si="39"/>
-        <v>Performed ExplicitWaitType ProcessIDtxtAct</v>
+        <f t="shared" si="35"/>
+        <v>Performed ExplicitWaitType Refresh</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>26</v>
@@ -24837,132 +24568,134 @@
         <v>39</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J118" s="11" t="s">
-        <v>155</v>
+      <c r="J118" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="M118" s="9"/>
     </row>
     <row r="119" spans="1:13" s="4" customFormat="1">
       <c r="A119" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D119" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>SetText ProcessIDtxtAct</v>
+        <f t="shared" si="34"/>
+        <v>ClickElementUsingJS Refresh</v>
       </c>
       <c r="E119" s="3" t="str">
-        <f t="shared" si="39"/>
-        <v>Performed SetText ProcessIDtxtAct</v>
+        <f t="shared" si="35"/>
+        <v>Performed ClickElementUsingJS Refresh</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J119" s="4" t="s">
-        <v>213</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="I119" s="16"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="16"/>
       <c r="M119" s="9"/>
     </row>
     <row r="120" spans="1:13" s="4" customFormat="1">
       <c r="A120" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D120" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>ClickElement SearchBtn</v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E120" s="3" t="str">
-        <f t="shared" si="39"/>
-        <v>Performed ClickElement SearchBtn</v>
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I120" s="16"/>
-      <c r="J120" s="17"/>
+        <v>154</v>
+      </c>
+      <c r="H120" s="9"/>
+      <c r="I120" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J120" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
       <c r="M120" s="9"/>
     </row>
     <row r="121" spans="1:13" s="4" customFormat="1">
       <c r="A121" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <f t="shared" si="34"/>
+        <v>VerifyText CheckStatus1</v>
       </c>
       <c r="E121" s="3" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <f t="shared" si="35"/>
+        <v>Performed VerifyText CheckStatus1</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H121" s="9"/>
-      <c r="I121" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J121" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M121" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I121" s="16"/>
+      <c r="J121" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="K121" s="16"/>
+      <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" s="4" customFormat="1">
+    <row r="122" spans="1:13" s="15" customFormat="1">
       <c r="A122" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D122" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>ExplicitWaitType Refresh</v>
+        <f t="shared" ref="D122:D124" si="36">_xlfn.CONCAT(G122," ",H122)</f>
+        <v>ExplicitWaitType ClickRow</v>
       </c>
       <c r="E122" s="3" t="str">
-        <f t="shared" si="39"/>
-        <v>Performed ExplicitWaitType Refresh</v>
+        <f t="shared" ref="E122:E124" si="37">_xlfn.CONCAT("Performed"," ",G122," ",H122)</f>
+        <v>Performed ExplicitWaitType ClickRow</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>26</v>
@@ -24970,79 +24703,82 @@
       <c r="G122" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H122" s="4" t="s">
-        <v>95</v>
+      <c r="H122" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="M122" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" s="4" customFormat="1">
+    <row r="123" spans="1:13" s="15" customFormat="1" ht="12" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D123" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>ClickElementUsingJS Refresh</v>
+        <f t="shared" si="36"/>
+        <v>ClickElement ClickRow</v>
       </c>
       <c r="E123" s="3" t="str">
-        <f t="shared" si="39"/>
-        <v>Performed ClickElementUsingJS Refresh</v>
+        <f t="shared" si="37"/>
+        <v>Performed ClickElement ClickRow</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I123" s="16"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="16"/>
-      <c r="M123" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I123" s="4"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="3"/>
     </row>
     <row r="124" spans="1:13" s="4" customFormat="1">
       <c r="A124" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D124" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E124" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J124" s="14" t="s">
-        <v>158</v>
+      <c r="J124" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
@@ -25050,1080 +24786,866 @@
     </row>
     <row r="125" spans="1:13" s="4" customFormat="1">
       <c r="A125" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D125" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>VerifyText CheckStatus1</v>
+        <f t="shared" ref="D125" si="38">_xlfn.CONCAT(G125," ",H125)</f>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E125" s="3" t="str">
-        <f t="shared" si="39"/>
-        <v>Performed VerifyText CheckStatus1</v>
+        <f t="shared" ref="E125" si="39">_xlfn.CONCAT("Performed"," ",G125," ",H125)</f>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I125" s="16"/>
-      <c r="J125" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="K125" s="16"/>
-      <c r="M125" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="H125" s="9"/>
+      <c r="I125" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="1:13" s="15" customFormat="1">
+    <row r="126" spans="1:13" s="15" customFormat="1" ht="12" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D126" s="3" t="str">
-        <f t="shared" ref="D126:D128" si="40">_xlfn.CONCAT(G126," ",H126)</f>
-        <v>ExplicitWaitType ClickRow</v>
+        <f t="shared" ref="D126:D129" si="40">_xlfn.CONCAT(G126," ",H126)</f>
+        <v xml:space="preserve">SwitchToFrame </v>
       </c>
       <c r="E126" s="3" t="str">
-        <f t="shared" ref="E126:E128" si="41">_xlfn.CONCAT("Performed"," ",G126," ",H126)</f>
-        <v>Performed ExplicitWaitType ClickRow</v>
+        <f t="shared" ref="E126:E129" si="41">_xlfn.CONCAT("Performed"," ",G126," ",H126)</f>
+        <v xml:space="preserve">Performed SwitchToFrame </v>
       </c>
       <c r="F126" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H126" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="I126" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J126" s="8" t="s">
-        <v>154</v>
+      <c r="H126" s="2"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" s="15" customFormat="1" ht="12" customHeight="1">
+    <row r="127" spans="1:13" s="4" customFormat="1">
       <c r="A127" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D127" s="3" t="str">
         <f t="shared" si="40"/>
-        <v>ClickElement ClickRow</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E127" s="3" t="str">
         <f t="shared" si="41"/>
-        <v>Performed ClickElement ClickRow</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I127" s="4"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="H127" s="9"/>
+      <c r="I127" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J127" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
     </row>
-    <row r="128" spans="1:13" s="4" customFormat="1">
+    <row r="128" spans="1:13" s="15" customFormat="1">
       <c r="A128" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D128" s="3" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>ExplicitWaitType DownloadReport</v>
       </c>
       <c r="E128" s="3" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>Performed ExplicitWaitType DownloadReport</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H128" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="I128" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" s="4" customFormat="1">
+    <row r="129" spans="1:13" s="15" customFormat="1" ht="12" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f t="shared" ref="D129" si="42">_xlfn.CONCAT(G129," ",H129)</f>
-        <v xml:space="preserve">WaitForDuration </v>
+        <f t="shared" si="40"/>
+        <v>ClickElement DownloadReport</v>
       </c>
       <c r="E129" s="3" t="str">
-        <f t="shared" ref="E129" si="43">_xlfn.CONCAT("Performed"," ",G129," ",H129)</f>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <f t="shared" si="41"/>
+        <v>Performed ClickElement DownloadReport</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H129" s="9"/>
-      <c r="I129" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J129" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-    </row>
-    <row r="130" spans="1:13" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A130" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D130" s="3" t="str">
-        <f t="shared" ref="D130:D133" si="44">_xlfn.CONCAT(G130," ",H130)</f>
-        <v xml:space="preserve">SwitchToFrame </v>
-      </c>
-      <c r="E130" s="3" t="str">
-        <f t="shared" ref="E130:E133" si="45">_xlfn.CONCAT("Performed"," ",G130," ",H130)</f>
-        <v xml:space="preserve">Performed SwitchToFrame </v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="H130" s="2"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="3"/>
-    </row>
-    <row r="131" spans="1:13" s="4" customFormat="1">
-      <c r="A131" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D131" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E131" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H131" s="9"/>
-      <c r="I131" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J131" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-    </row>
-    <row r="132" spans="1:13" s="15" customFormat="1">
-      <c r="A132" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D132" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>ExplicitWaitType DownloadReport</v>
-      </c>
-      <c r="E132" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>Performed ExplicitWaitType DownloadReport</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J132" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="3"/>
-    </row>
-    <row r="133" spans="1:13" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A133" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D133" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>ClickElement DownloadReport</v>
-      </c>
-      <c r="E133" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>Performed ClickElement DownloadReport</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H133" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="I133" s="4"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="3"/>
+      <c r="H129" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I129" s="4"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N74" xr:uid="{EB952947-DEC4-4094-8CF3-5488438C7CE4}"/>
+  <autoFilter ref="A1:N70" xr:uid="{EB952947-DEC4-4094-8CF3-5488438C7CE4}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="319" priority="783"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="318" priority="784"/>
-    <cfRule type="duplicateValues" dxfId="317" priority="785"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="791"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="792"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="316" priority="762"/>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="duplicateValues" dxfId="288" priority="769"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="315" priority="694"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="701"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="314" priority="695"/>
-    <cfRule type="duplicateValues" dxfId="313" priority="696"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="702"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="703"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="duplicateValues" dxfId="312" priority="691"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="698"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="duplicateValues" dxfId="311" priority="692"/>
-    <cfRule type="duplicateValues" dxfId="310" priority="693"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="699"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="700"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="duplicateValues" dxfId="309" priority="688"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="695"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="duplicateValues" dxfId="308" priority="689"/>
-    <cfRule type="duplicateValues" dxfId="307" priority="690"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="696"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="697"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="306" priority="632"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="639"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="duplicateValues" dxfId="305" priority="616"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="623"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="duplicateValues" dxfId="304" priority="614"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="621"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="303" priority="615"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="622"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="302" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="301" priority="425"/>
-    <cfRule type="duplicateValues" dxfId="300" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="432"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="433"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="duplicateValues" dxfId="299" priority="421"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="duplicateValues" dxfId="298" priority="422"/>
-    <cfRule type="duplicateValues" dxfId="297" priority="423"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="429"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="296" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="295" priority="419"/>
-    <cfRule type="duplicateValues" dxfId="294" priority="420"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="duplicateValues" dxfId="293" priority="415"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="duplicateValues" dxfId="292" priority="416"/>
-    <cfRule type="duplicateValues" dxfId="291" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="423"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="290" priority="411"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="duplicateValues" dxfId="289" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="415"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="duplicateValues" dxfId="288" priority="409"/>
-    <cfRule type="duplicateValues" dxfId="287" priority="410"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="416"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="417"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="286" priority="406"/>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="duplicateValues" dxfId="258" priority="413"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="duplicateValues" dxfId="285" priority="407"/>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="duplicateValues" dxfId="257" priority="414"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="284" priority="404"/>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="duplicateValues" dxfId="256" priority="411"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="duplicateValues" dxfId="255" priority="412"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="duplicateValues" dxfId="254" priority="409"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="duplicateValues" dxfId="253" priority="410"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
+    <cfRule type="duplicateValues" dxfId="252" priority="406"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="duplicateValues" dxfId="251" priority="404"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="duplicateValues" dxfId="250" priority="405"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="duplicateValues" dxfId="249" priority="401"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="duplicateValues" dxfId="248" priority="400"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="duplicateValues" dxfId="247" priority="399"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="duplicateValues" dxfId="246" priority="398"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="duplicateValues" dxfId="245" priority="397"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="duplicateValues" dxfId="244" priority="814"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="duplicateValues" dxfId="243" priority="815"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="duplicateValues" dxfId="242" priority="393"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 H11">
+    <cfRule type="duplicateValues" dxfId="241" priority="394"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="395"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="239" priority="387"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="238" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="389"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="duplicateValues" dxfId="236" priority="386"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="duplicateValues" dxfId="235" priority="359"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60">
+    <cfRule type="duplicateValues" dxfId="234" priority="360"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="duplicateValues" dxfId="233" priority="353"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="duplicateValues" dxfId="232" priority="354"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="duplicateValues" dxfId="231" priority="352"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="duplicateValues" dxfId="230" priority="351"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="duplicateValues" dxfId="229" priority="350"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="duplicateValues" dxfId="228" priority="347"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="duplicateValues" dxfId="227" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="349"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
+    <cfRule type="duplicateValues" dxfId="225" priority="340"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="duplicateValues" dxfId="224" priority="338"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="duplicateValues" dxfId="223" priority="339"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="duplicateValues" dxfId="222" priority="337"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="duplicateValues" dxfId="221" priority="335"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="duplicateValues" dxfId="220" priority="336"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="duplicateValues" dxfId="219" priority="334"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="duplicateValues" dxfId="218" priority="332"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="duplicateValues" dxfId="217" priority="333"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="duplicateValues" dxfId="216" priority="331"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="duplicateValues" dxfId="215" priority="329"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="duplicateValues" dxfId="214" priority="330"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="283" priority="405"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="328"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="duplicateValues" dxfId="282" priority="402"/>
+  <conditionalFormatting sqref="H54:H55">
+    <cfRule type="duplicateValues" dxfId="212" priority="326"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="duplicateValues" dxfId="281" priority="403"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
-    <cfRule type="duplicateValues" dxfId="280" priority="399"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="duplicateValues" dxfId="279" priority="397"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="278" priority="398"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="duplicateValues" dxfId="277" priority="394"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="276" priority="393"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="275" priority="392"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="274" priority="391"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="duplicateValues" dxfId="273" priority="390"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="272" priority="807"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="duplicateValues" dxfId="271" priority="808"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
-    <cfRule type="duplicateValues" dxfId="270" priority="386"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9 H11">
-    <cfRule type="duplicateValues" dxfId="269" priority="387"/>
-    <cfRule type="duplicateValues" dxfId="268" priority="388"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="267" priority="380"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="266" priority="381"/>
-    <cfRule type="duplicateValues" dxfId="265" priority="382"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="duplicateValues" dxfId="264" priority="379"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="duplicateValues" dxfId="263" priority="377"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="duplicateValues" dxfId="262" priority="375"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50:H51">
-    <cfRule type="duplicateValues" dxfId="261" priority="366"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50:H51">
-    <cfRule type="duplicateValues" dxfId="260" priority="367"/>
-    <cfRule type="duplicateValues" dxfId="259" priority="368"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="258" priority="360"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="257" priority="361"/>
-    <cfRule type="duplicateValues" dxfId="256" priority="362"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="255" priority="354"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="254" priority="355"/>
-    <cfRule type="duplicateValues" dxfId="253" priority="356"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="252" priority="352"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="duplicateValues" dxfId="251" priority="353"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="duplicateValues" dxfId="250" priority="346"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="249" priority="347"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="duplicateValues" dxfId="248" priority="345"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="duplicateValues" dxfId="247" priority="344"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="duplicateValues" dxfId="246" priority="343"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
-    <cfRule type="duplicateValues" dxfId="245" priority="340"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
-    <cfRule type="duplicateValues" dxfId="244" priority="341"/>
-    <cfRule type="duplicateValues" dxfId="243" priority="342"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
-    <cfRule type="duplicateValues" dxfId="242" priority="333"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="duplicateValues" dxfId="241" priority="331"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="240" priority="332"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
-    <cfRule type="duplicateValues" dxfId="239" priority="330"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="duplicateValues" dxfId="238" priority="328"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="237" priority="329"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="duplicateValues" dxfId="236" priority="327"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="235" priority="325"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="duplicateValues" dxfId="234" priority="326"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="duplicateValues" dxfId="233" priority="324"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="232" priority="322"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="duplicateValues" dxfId="231" priority="323"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="duplicateValues" dxfId="230" priority="321"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58:H59">
-    <cfRule type="duplicateValues" dxfId="229" priority="319"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="duplicateValues" dxfId="228" priority="315"/>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="duplicateValues" dxfId="211" priority="322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="duplicateValues" dxfId="227" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="226" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="225" priority="313"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="duplicateValues" dxfId="224" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="223" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="222" priority="295"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="220" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="219" priority="292"/>
-    <cfRule type="duplicateValues" dxfId="218" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="300"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="217" priority="288"/>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="duplicateValues" dxfId="201" priority="282"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="216" priority="289"/>
-    <cfRule type="duplicateValues" dxfId="215" priority="290"/>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="duplicateValues" dxfId="200" priority="275"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="duplicateValues" dxfId="214" priority="285"/>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="duplicateValues" dxfId="199" priority="274"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="duplicateValues" dxfId="213" priority="286"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="287"/>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="duplicateValues" dxfId="198" priority="273"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="duplicateValues" dxfId="211" priority="283"/>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="duplicateValues" dxfId="197" priority="268"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="duplicateValues" dxfId="210" priority="284"/>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="duplicateValues" dxfId="196" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="270"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="duplicateValues" dxfId="209" priority="282"/>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="194" priority="265"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="208" priority="279"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="207" priority="280"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="281"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="205" priority="276"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="204" priority="277"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="278"/>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="193" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76">
-    <cfRule type="duplicateValues" dxfId="202" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="264"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="201" priority="268"/>
+  <conditionalFormatting sqref="H76:H77">
+    <cfRule type="duplicateValues" dxfId="190" priority="255"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="200" priority="267"/>
+  <conditionalFormatting sqref="H76:H77">
+    <cfRule type="duplicateValues" dxfId="189" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78">
-    <cfRule type="duplicateValues" dxfId="199" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="duplicateValues" dxfId="198" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="duplicateValues" dxfId="197" priority="262"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="duplicateValues" dxfId="195" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="duplicateValues" dxfId="194" priority="259"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="247"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79">
+    <cfRule type="duplicateValues" dxfId="180" priority="242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79">
+    <cfRule type="duplicateValues" dxfId="179" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80">
-    <cfRule type="duplicateValues" dxfId="192" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="241"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80:H81">
-    <cfRule type="duplicateValues" dxfId="191" priority="248"/>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="176" priority="235"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80:H81">
-    <cfRule type="duplicateValues" dxfId="190" priority="249"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="250"/>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="175" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="173" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="172" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="duplicateValues" dxfId="188" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="duplicateValues" dxfId="187" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="231"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="duplicateValues" dxfId="186" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="243"/>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="duplicateValues" dxfId="168" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="duplicateValues" dxfId="184" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="duplicateValues" dxfId="183" priority="239"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="240"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="duplicateValues" dxfId="181" priority="235"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="duplicateValues" dxfId="180" priority="236"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="237"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
-    <cfRule type="duplicateValues" dxfId="178" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="duplicateValues" dxfId="177" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="duplicateValues" dxfId="176" priority="229"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J85">
+    <cfRule type="duplicateValues" dxfId="161" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="174" priority="225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="173" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86">
-    <cfRule type="duplicateValues" dxfId="171" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="duplicateValues" dxfId="170" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="205"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J87">
-    <cfRule type="duplicateValues" dxfId="169" priority="222"/>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="duplicateValues" dxfId="157" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="duplicateValues" dxfId="168" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="duplicateValues" dxfId="167" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88">
+    <cfRule type="duplicateValues" dxfId="152" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="duplicateValues" dxfId="165" priority="210"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="duplicateValues" dxfId="164" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J89">
-    <cfRule type="duplicateValues" dxfId="162" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="duplicateValues" dxfId="161" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J90">
-    <cfRule type="duplicateValues" dxfId="160" priority="207"/>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="duplicateValues" dxfId="148" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="duplicateValues" dxfId="159" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="duplicateValues" dxfId="158" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91">
+    <cfRule type="duplicateValues" dxfId="143" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="duplicateValues" dxfId="156" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="186"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="duplicateValues" dxfId="155" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J92">
-    <cfRule type="duplicateValues" dxfId="153" priority="193"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="duplicateValues" dxfId="152" priority="194"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J93">
-    <cfRule type="duplicateValues" dxfId="151" priority="192"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="duplicateValues" dxfId="150" priority="183"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="duplicateValues" dxfId="149" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="185"/>
+  <conditionalFormatting sqref="J94">
+    <cfRule type="duplicateValues" dxfId="141" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="duplicateValues" dxfId="147" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="duplicateValues" dxfId="146" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="182"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J95">
-    <cfRule type="duplicateValues" dxfId="144" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="duplicateValues" dxfId="143" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="180"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J98">
-    <cfRule type="duplicateValues" dxfId="142" priority="176"/>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="duplicateValues" dxfId="138" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="duplicateValues" dxfId="136" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="duplicateValues" dxfId="135" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J96">
+    <cfRule type="duplicateValues" dxfId="133" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J96">
+    <cfRule type="duplicateValues" dxfId="132" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J97">
+    <cfRule type="duplicateValues" dxfId="130" priority="173"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="duplicateValues" dxfId="129" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="duplicateValues" dxfId="128" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="duplicateValues" dxfId="141" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="duplicateValues" dxfId="125" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J99">
+    <cfRule type="duplicateValues" dxfId="123" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="duplicateValues" dxfId="140" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="duplicateValues" dxfId="139" priority="174"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="duplicateValues" dxfId="137" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="duplicateValues" dxfId="136" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="172"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J100">
-    <cfRule type="duplicateValues" dxfId="134" priority="167"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J100">
-    <cfRule type="duplicateValues" dxfId="133" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J101">
-    <cfRule type="duplicateValues" dxfId="131" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="duplicateValues" dxfId="130" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="duplicateValues" dxfId="129" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="duplicateValues" dxfId="127" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="duplicateValues" dxfId="126" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103">
+    <cfRule type="duplicateValues" dxfId="109" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J103">
-    <cfRule type="duplicateValues" dxfId="124" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="132"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="duplicateValues" dxfId="123" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="duplicateValues" dxfId="122" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="146"/>
+  <conditionalFormatting sqref="J104">
+    <cfRule type="duplicateValues" dxfId="107" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="duplicateValues" dxfId="120" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="duplicateValues" dxfId="119" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105">
+    <cfRule type="duplicateValues" dxfId="103" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105">
+    <cfRule type="duplicateValues" dxfId="102" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105">
-    <cfRule type="duplicateValues" dxfId="117" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
-    <cfRule type="duplicateValues" dxfId="116" priority="131"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
-    <cfRule type="duplicateValues" dxfId="115" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="133"/>
+  <conditionalFormatting sqref="J105">
+    <cfRule type="duplicateValues" dxfId="99" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106">
-    <cfRule type="duplicateValues" dxfId="113" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="115"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H106">
-    <cfRule type="duplicateValues" dxfId="112" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="130"/>
+  <conditionalFormatting sqref="J106">
+    <cfRule type="duplicateValues" dxfId="96" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J107">
+    <cfRule type="duplicateValues" dxfId="95" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107">
-    <cfRule type="duplicateValues" dxfId="110" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J107">
-    <cfRule type="duplicateValues" dxfId="109" priority="125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J108">
-    <cfRule type="duplicateValues" dxfId="108" priority="124"/>
+  <conditionalFormatting sqref="H107">
+    <cfRule type="duplicateValues" dxfId="93" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="duplicateValues" dxfId="107" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="duplicateValues" dxfId="106" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J110">
+    <cfRule type="duplicateValues" dxfId="88" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J110">
+    <cfRule type="duplicateValues" dxfId="87" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="duplicateValues" dxfId="104" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="duplicateValues" dxfId="103" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J109">
-    <cfRule type="duplicateValues" dxfId="101" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J109">
-    <cfRule type="duplicateValues" dxfId="100" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="duplicateValues" dxfId="98" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J110">
-    <cfRule type="duplicateValues" dxfId="97" priority="107"/>
+  <conditionalFormatting sqref="H110">
+    <cfRule type="duplicateValues" dxfId="81" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111">
-    <cfRule type="duplicateValues" dxfId="96" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="duplicateValues" dxfId="95" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="duplicateValues" dxfId="94" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H112">
-    <cfRule type="duplicateValues" dxfId="92" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H112">
-    <cfRule type="duplicateValues" dxfId="91" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118">
+    <cfRule type="duplicateValues" dxfId="72" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J118">
+    <cfRule type="duplicateValues" dxfId="71" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J120">
+    <cfRule type="duplicateValues" dxfId="70" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H120">
+    <cfRule type="duplicateValues" dxfId="69" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J117">
+    <cfRule type="duplicateValues" dxfId="68" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="duplicateValues" dxfId="67" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J114">
-    <cfRule type="duplicateValues" dxfId="89" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J114">
-    <cfRule type="duplicateValues" dxfId="88" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="91"/>
+  <conditionalFormatting sqref="H115">
+    <cfRule type="duplicateValues" dxfId="65" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="duplicateValues" dxfId="64" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="duplicateValues" dxfId="86" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113">
-    <cfRule type="duplicateValues" dxfId="85" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
-    <cfRule type="duplicateValues" dxfId="83" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
-    <cfRule type="duplicateValues" dxfId="82" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="85"/>
+  <conditionalFormatting sqref="J113">
+    <cfRule type="duplicateValues" dxfId="62" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115">
-    <cfRule type="duplicateValues" dxfId="80" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
-    <cfRule type="duplicateValues" dxfId="79" priority="73"/>
+  <conditionalFormatting sqref="J115">
+    <cfRule type="duplicateValues" dxfId="60" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
-    <cfRule type="duplicateValues" dxfId="78" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H116">
-    <cfRule type="duplicateValues" dxfId="76" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H116">
-    <cfRule type="duplicateValues" dxfId="75" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="duplicateValues" dxfId="73" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="72" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="71" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="duplicateValues" dxfId="69" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="duplicateValues" dxfId="68" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="duplicateValues" dxfId="66" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="65" priority="56"/>
+  <conditionalFormatting sqref="J122">
+    <cfRule type="duplicateValues" dxfId="58" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="duplicateValues" dxfId="64" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J122">
-    <cfRule type="duplicateValues" dxfId="63" priority="54"/>
+  <conditionalFormatting sqref="H122">
+    <cfRule type="duplicateValues" dxfId="56" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H123">
+    <cfRule type="duplicateValues" dxfId="54" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H123">
+    <cfRule type="duplicateValues" dxfId="53" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H124">
+    <cfRule type="duplicateValues" dxfId="51" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124">
-    <cfRule type="duplicateValues" dxfId="62" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
-    <cfRule type="duplicateValues" dxfId="61" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J121">
-    <cfRule type="duplicateValues" dxfId="60" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
-    <cfRule type="duplicateValues" dxfId="59" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J118">
-    <cfRule type="duplicateValues" dxfId="58" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H119">
-    <cfRule type="duplicateValues" dxfId="57" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
-    <cfRule type="duplicateValues" dxfId="56" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
-    <cfRule type="duplicateValues" dxfId="55" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J117">
-    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J119">
-    <cfRule type="duplicateValues" dxfId="53" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J119">
-    <cfRule type="duplicateValues" dxfId="52" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J126">
-    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule type="duplicateValues" dxfId="49" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule type="duplicateValues" dxfId="48" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
+  <conditionalFormatting sqref="J127">
     <cfRule type="duplicateValues" dxfId="46" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127">
     <cfRule type="duplicateValues" dxfId="45" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J128">
+    <cfRule type="duplicateValues" dxfId="44" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="duplicateValues" dxfId="43" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J128">
-    <cfRule type="duplicateValues" dxfId="42" priority="23"/>
+  <conditionalFormatting sqref="H128">
+    <cfRule type="duplicateValues" dxfId="42" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="duplicateValues" dxfId="41" priority="20"/>
+  <conditionalFormatting sqref="H129">
+    <cfRule type="duplicateValues" dxfId="40" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="duplicateValues" dxfId="40" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="22"/>
+  <conditionalFormatting sqref="H129">
+    <cfRule type="duplicateValues" dxfId="39" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J131">
-    <cfRule type="duplicateValues" dxfId="38" priority="18"/>
+  <conditionalFormatting sqref="H125">
+    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H131">
-    <cfRule type="duplicateValues" dxfId="37" priority="19"/>
+  <conditionalFormatting sqref="J125">
+    <cfRule type="duplicateValues" dxfId="36" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J132">
-    <cfRule type="duplicateValues" dxfId="36" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H132">
+  <conditionalFormatting sqref="J71">
     <cfRule type="duplicateValues" dxfId="35" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H132">
+  <conditionalFormatting sqref="H71">
     <cfRule type="duplicateValues" dxfId="34" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H133">
-    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="duplicateValues" dxfId="33" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H133">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="7"/>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J129">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+  <conditionalFormatting sqref="J42">
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J75">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I33:I34 I71:I72 I2:I3 I22 I6 I8 I10:I11 I13 I15:I16 I58:I61 I31 I36 I38:I39 I41 I51 I53:I54 I56 I63:I64 I67 I69 I27:I29 I25 I18 I49 I75:I76 I78 I80 I82 I84 I86:I87 I89:I90 I92:I93 I95:I96 I98:I99 I101 I103 I105 I107:I108 I110:I111 I113:I115 I43:I44 I46:I47 I117:I119 I121:I122 I124 I126 I131:I132 I128:I129" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G131:G1048576 F1:F1048576 G1:G129" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" sqref="I33:I34 I67:I68 I2:I3 I22 I6 I8 I10:I11 I13 I15:I16 I54:I57 I31 I36 I38:I39 I49:I50 I52 I59:I60 I63 I65 I27:I29 I25 I18 I71:I72 I74 I76 I78 I80 I82:I83 I85:I86 I88:I89 I91:I92 I94:I95 I97 I99 I101 I103:I104 I106:I107 I109:I111 I113:I115 I117:I118 I120 I122 I127:I128 I124:I125 I47 I45 I41:I42" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G127:G1048576 F1:G48 F49:F1048576 G49:G125" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -26134,10 +25656,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -26201,7 +25723,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -26215,7 +25737,7 @@
         <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -26313,7 +25835,7 @@
         <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>
@@ -26349,13 +25871,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
@@ -26363,13 +25885,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>26</v>
@@ -26377,13 +25899,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>26</v>
@@ -26391,13 +25913,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>26</v>
@@ -26405,13 +25927,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>26</v>
@@ -26419,13 +25941,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>26</v>
@@ -26433,13 +25955,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>26</v>
@@ -26447,13 +25969,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
@@ -26461,13 +25983,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>26</v>
@@ -26475,13 +25997,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>26</v>
@@ -26489,13 +26011,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>26</v>
@@ -26503,13 +26025,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>26</v>
@@ -26517,13 +26039,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>26</v>
@@ -26531,13 +26053,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>26</v>
@@ -26545,13 +26067,13 @@
     </row>
     <row r="29" spans="1:4" s="6" customFormat="1">
       <c r="A29" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>26</v>
@@ -26559,13 +26081,13 @@
     </row>
     <row r="30" spans="1:4" s="6" customFormat="1">
       <c r="A30" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>26</v>
@@ -26573,13 +26095,13 @@
     </row>
     <row r="31" spans="1:4" s="6" customFormat="1">
       <c r="A31" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>26</v>
@@ -26587,13 +26109,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>26</v>
@@ -26601,13 +26123,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>26</v>
@@ -26615,13 +26137,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>26</v>
@@ -26629,13 +26151,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>26</v>
@@ -26643,13 +26165,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>26</v>
@@ -26657,13 +26179,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>26</v>
@@ -26671,13 +26193,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>26</v>
@@ -26685,13 +26207,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>26</v>
@@ -26699,13 +26221,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>26</v>
@@ -26713,13 +26235,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>26</v>
@@ -26727,13 +26249,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>26</v>
@@ -26741,13 +26263,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>26</v>
@@ -26755,13 +26277,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>26</v>
@@ -26769,13 +26291,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>26</v>
@@ -26783,13 +26305,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>26</v>
@@ -26797,13 +26319,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>26</v>
@@ -26811,13 +26333,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>26</v>
@@ -26825,13 +26347,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>26</v>
@@ -26839,13 +26361,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>26</v>
@@ -26853,13 +26375,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>26</v>
@@ -26867,13 +26389,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>26</v>
@@ -26881,13 +26403,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>26</v>
@@ -26895,15 +26417,29 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="6" customFormat="1">
+      <c r="A55" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D55" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -26913,69 +26449,76 @@
     <sortCondition ref="D2:D13"/>
   </sortState>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="25" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="24" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
     <cfRule type="duplicateValues" dxfId="22" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="duplicateValues" dxfId="21" priority="12"/>
     <cfRule type="duplicateValues" dxfId="20" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="duplicateValues" dxfId="18" priority="9"/>
     <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A29:A31">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A23">
-    <cfRule type="duplicateValues" dxfId="12" priority="538"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="541"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A23">
-    <cfRule type="duplicateValues" dxfId="11" priority="539"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="540"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="542"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="543"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A11">
-    <cfRule type="duplicateValues" dxfId="9" priority="541"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="544"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A11">
-    <cfRule type="duplicateValues" dxfId="8" priority="543"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="544"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="546"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="547"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A20 A24:A28 A32 A1:A5 A35:A42 A44:A51 A53:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="545"/>
+  <conditionalFormatting sqref="A13:A20 A24:A28 A32 A1:A5 A35:A42 A44:A51 A53:A54 A56:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="548"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A20 A24:A28 A32 A1:A5 A35:A42 A44:A51 A53:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="551"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="552"/>
+  <conditionalFormatting sqref="A13:A20 A24:A28 A32 A1:A5 A35:A42 A44:A51 A53:A54 A56:A1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="554"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="555"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A55">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F21:G23 F6:G11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F21:G23 F6:G11 F55:G55" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="https://edrx-dev1.fs.us2.oraclecloud.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
